--- a/1-regression-analysis-and-predictive-models/logistic-regression/sigmoid-curve.xlsx
+++ b/1-regression-analysis-and-predictive-models/logistic-regression/sigmoid-curve.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-advanced-statistics-for-business-analytics\1-regression-analysis-and-predictive-models\logistic-regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\olt-advanced-statistics-for-business-analytics\1-regression-analysis-and-predictive-models\logistic-regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44251A2E-C952-475F-8B49-75021FBA80A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F166604B-939C-4FDE-A0E1-E11BA76A6E28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
+    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="13373" activeTab="1" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
   </bookViews>
   <sheets>
     <sheet name="yes-no-plot" sheetId="16" r:id="rId1"/>
@@ -4684,12 +4684,12 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>5.5448524722794907E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>6.1279739616602468E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>4</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>6.7724149619770245E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>5</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>7.4846227510611243E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>6</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>8.2717222851666389E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>7</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>9.1415873852161426E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>8</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>1.0102919390777289E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>9</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>1.1165334062956276E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>10</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>1.2339457598623172E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>11</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>12</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>1.5071035805975743E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>13</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>1.6655806477733608E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>14</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>1.84071904963424E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>15</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>2.034269780552065E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>16</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>2.2481677023329527E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>17</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>2.4845508183933427E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>18</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>2.7457815610133291E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>19</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>3.0344703002891922E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>20</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>3.3535013046647816E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>21</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>3.7060614062639648E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>22</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>4.0956716498605043E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>23</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>4.5262222324053545E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>24</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>5.0020110707956432E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>25</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>26</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>6.1087935943440102E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>27</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>6.7508273063283822E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>28</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>7.4602883383669764E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>29</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>8.2442468639829544E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>30</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>9.1105119440064539E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>31</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>1.0067708200856369E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>32</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>1.1125360328603216E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>33</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>1.2293986212774215E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>34</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>1.3585199504289594E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>35</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>1.5011822567369915E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>36</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>37</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>1.8329389424928053E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>38</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>2.0253203890498836E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>39</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>2.2378485212763335E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>40</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>2.4726231566347748E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>41</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>2.7319607630110617E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>42</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>3.0184163247084245E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>43</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>3.3348073074133443E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>44</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>3.6842398994359894E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>45</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>4.0701377158961268E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>46</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>4.4962731609411825E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>47</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>4.9668016500569604E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>48</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>5.4862988994504088E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>49</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>6.0598014915841155E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>50</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>6.6928509242848563E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>51</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>7.3915413442819768E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>52</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>8.1625711531598966E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>53</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>9.0132986528478308E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>54</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>9.9518018669043258E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>55</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>1.098694263059318E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A59">
         <v>56</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>1.2128434984274246E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A60">
         <v>57</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A61">
         <v>58</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>1.4774031693273069E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A62">
         <v>59</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>1.6302499371440949E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A63">
         <v>60</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>1.7986209962091555E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A64">
         <v>61</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>1.9840305734077517E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A65">
         <v>62</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>2.1881270936130476E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A66">
         <v>63</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>2.4127021417669221E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A67">
         <v>64</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>2.659699357686586E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A68">
         <v>65</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>2.9312230751356316E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A69">
         <v>66</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>3.2295464698450529E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A70">
         <v>67</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>3.5571189272636181E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A71">
         <v>68</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>3.9165722796764391E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A72">
         <v>69</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>4.3107254941086137E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A73">
         <v>70</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>4.7425873177566788E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A74">
         <v>71</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>5.2153563078417758E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A75">
         <v>72</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>5.7324175898868755E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A76">
         <v>73</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>6.2973356056996541E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A77">
         <v>74</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>6.9138420343346829E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A78">
         <v>75</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>7.585818002124356E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A79">
         <v>76</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>8.3172696493922421E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A80">
         <v>77</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>9.1122961014856146E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A81">
         <v>78</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>9.9750489119685218E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A82">
         <v>79</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>0.10909682119561298</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A83">
         <v>80</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>0.11920292202211755</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A84">
         <v>81</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>0.1301084743629978</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A85">
         <v>82</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>0.14185106490048793</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A86">
         <v>83</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>0.15446526508353481</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A87">
         <v>84</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A88">
         <v>85</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>0.18242552380635632</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A89">
         <v>86</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>0.1978161114414182</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A90">
         <v>87</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>0.21416501695744153</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A91">
         <v>88</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>0.23147521650098249</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A92">
         <v>89</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>0.24973989440488245</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A93">
         <v>90</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>0.2689414213699951</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A94">
         <v>91</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>0.28905049737499594</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A95">
         <v>92</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>0.31002551887238777</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A96">
         <v>93</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>0.33181222783183406</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A97">
         <v>94</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>0.35434369377420466</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A98">
         <v>95</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>0.37754066879814546</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A99">
         <v>96</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>0.40131233988754833</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A100">
         <v>97</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>0.42555748318834125</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A101">
         <v>98</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>0.45016600268752227</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A102">
         <v>99</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A103">
         <v>100</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A104">
         <v>101</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>0.52497918747894035</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A105">
         <v>102</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>0.54983399731247817</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A106">
         <v>103</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>0.57444251681165914</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A107">
         <v>104</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>0.59868766011245211</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A108">
         <v>105</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A109">
         <v>106</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>0.64565630622579573</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A110">
         <v>107</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>0.66818777216816638</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A111">
         <v>108</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>0.68997448112761262</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A112">
         <v>109</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>0.710949502625004</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A113">
         <v>110</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>0.7310585786300049</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A114">
         <v>111</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>0.75026010559511791</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A115">
         <v>112</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>0.76852478349901787</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A116">
         <v>113</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>0.78583498304255883</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A117">
         <v>114</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>0.8021838885585818</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A118">
         <v>115</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>0.81757447619364365</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A119">
         <v>116</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>0.83201838513392468</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A120">
         <v>117</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>0.84553473491646547</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A121">
         <v>118</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>0.85814893509951229</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A122">
         <v>119</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>0.86989152563700223</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A123">
         <v>120</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>0.88079707797788243</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A124">
         <v>121</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>0.89090317880438719</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A125">
         <v>122</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A126">
         <v>123</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>0.90887703898514394</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A127">
         <v>124</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>0.91682730350607766</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A128">
         <v>125</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>0.92414181997875644</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A129">
         <v>126</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>0.93086157965665328</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A130">
         <v>127</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>0.93702664394300361</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A131">
         <v>128</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>0.94267582410113127</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A132">
         <v>129</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>0.94784643692158232</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A133">
         <v>130</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>0.95257412682243325</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A134">
         <v>131</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A135">
         <v>132</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>0.96083427720323566</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A136">
         <v>133</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>0.96442881072736386</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A137">
         <v>134</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>0.96770453530154954</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A138">
         <v>135</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>0.97068776924864364</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A139">
         <v>136</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>0.97340300642313415</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A140">
         <v>137</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>0.9758729785823308</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A141">
         <v>138</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>0.97811872906386954</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A142">
         <v>139</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A143">
         <v>140</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>0.98201379003790845</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A144">
         <v>141</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>0.9836975006285591</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A145">
         <v>142</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>0.98522596830672693</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A146">
         <v>143</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A147">
         <v>144</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>0.98787156501572582</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A148">
         <v>145</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>0.98901305736940681</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A149">
         <v>146</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>0.99004819813309575</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A150">
         <v>147</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>0.99098670134715217</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A151">
         <v>148</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>0.99183742884684012</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A152">
         <v>149</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>0.99260845865571801</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A153">
         <v>150</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>0.99330714907571516</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A154">
         <v>151</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>0.99394019850841586</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A155">
         <v>152</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A156">
         <v>153</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>0.99503319834994308</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A157">
         <v>154</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>0.99550372683905886</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A158">
         <v>155</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>0.99592986228410385</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A159">
         <v>156</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>0.996315760100564</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A160">
         <v>157</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>0.99666519269258669</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A161">
         <v>158</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>0.99698158367529155</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A162">
         <v>159</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>0.99726803923698892</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A163">
         <v>160</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>0.99752737684336523</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A164">
         <v>161</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>0.99776215147872371</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A165">
         <v>162</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>0.9979746796109501</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A166">
         <v>163</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>0.99816706105750719</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A167">
         <v>164</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>0.99834119891982553</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A168">
         <v>165</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>0.99849881774326299</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A169">
         <v>166</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>0.9986414800495711</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A170">
         <v>167</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>0.99877060137872253</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A171">
         <v>168</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>0.99888746396713968</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A172">
         <v>169</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>0.9989932291799144</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A173">
         <v>170</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>0.9990889488055994</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A174">
         <v>171</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>0.99917557531360168</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A175">
         <v>172</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>0.99925397116616332</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A176">
         <v>173</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>0.99932491726936712</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A177">
         <v>174</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>0.99938912064056562</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A178">
         <v>175</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A179">
         <v>176</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>0.9994997988929204</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A180">
         <v>177</v>
       </c>
@@ -6351,7 +6351,7 @@
         <v>0.9995473777767595</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A181">
         <v>178</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>0.99959043283501392</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A182">
         <v>179</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>0.99962939385937355</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A183">
         <v>180</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>0.99966464986953352</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A184">
         <v>181</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>0.99969655296997106</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A185">
         <v>182</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>0.99972542184389868</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A186">
         <v>183</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>0.99975154491816065</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A187">
         <v>184</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>0.99977518322976666</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A188">
         <v>185</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>0.9997965730219448</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A189">
         <v>186</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>0.99981592809503661</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A190">
         <v>187</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>0.99983344193522261</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A191">
         <v>188</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>0.9998492896419402</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A192">
         <v>189</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>0.99986362967292053</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A193">
         <v>190</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>0.9998766054240138</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A194">
         <v>191</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>0.99988834665937043</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A195">
         <v>192</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>0.99989897080609225</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A196">
         <v>193</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A197">
         <v>194</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>0.99991728277714831</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A198">
         <v>195</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>0.99992515377248936</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A199">
         <v>196</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>0.99993227585038025</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A200">
         <v>197</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>0.99993872026038344</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A201">
         <v>198</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>0.99994455147527717</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A202">
         <v>199</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>0.99994982783531627</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A203">
         <v>200</v>
       </c>
@@ -6572,15 +6572,15 @@
   <dimension ref="A1:C203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>2</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>5.5448524722794907E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>3</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>6.1279739616602468E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>4</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>6.7724149619770245E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>5</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>7.4846227510611243E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>6</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>8.2717222851666389E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>7</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>9.1415873852161426E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>8</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>1.0102919390777289E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>9</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>1.1165334062956276E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>10</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>1.2339457598623172E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>11</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>12</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>1.5071035805975743E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>13</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>1.6655806477733608E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>14</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>1.84071904963424E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>15</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>2.034269780552065E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>16</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>2.2481677023329527E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>17</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>2.4845508183933427E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>18</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>2.7457815610133291E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>19</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>3.0344703002891922E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>20</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>3.3535013046647816E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>21</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>3.7060614062639648E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>22</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>4.0956716498605043E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>23</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>4.5262222324053545E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>24</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>5.0020110707956432E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>25</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>26</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>6.1087935943440102E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>27</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>6.7508273063283822E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>28</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>7.4602883383669764E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>29</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>8.2442468639829544E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>30</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>9.1105119440064539E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>31</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>1.0067708200856369E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>32</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>1.1125360328603216E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>33</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>1.2293986212774215E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>34</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>1.3585199504289594E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>35</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>1.5011822567369915E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>36</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>37</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>1.8329389424928053E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>38</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>2.0253203890498836E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>39</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>2.2378485212763335E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>40</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>2.4726231566347748E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>41</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>2.7319607630110617E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>42</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>3.0184163247084245E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>43</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>3.3348073074133443E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>44</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>3.6842398994359894E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>45</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>4.0701377158961268E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>46</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>4.4962731609411825E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>47</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>4.9668016500569604E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>48</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>5.4862988994504088E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>49</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>6.0598014915841155E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>50</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>6.6928509242848563E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>51</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>7.3915413442819768E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>52</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>8.1625711531598966E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>53</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>9.0132986528478308E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>54</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>9.9518018669043258E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>55</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>1.098694263059318E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A59">
         <v>56</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>1.2128434984274246E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A60">
         <v>57</v>
       </c>
@@ -7135,7 +7135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A61">
         <v>58</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>1.4774031693273069E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A62">
         <v>59</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>1.6302499371440949E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A63">
         <v>60</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>1.7986209962091555E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A64">
         <v>61</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>1.9840305734077517E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A65">
         <v>62</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>2.1881270936130476E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A66">
         <v>63</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>2.4127021417669221E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A67">
         <v>64</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>2.659699357686586E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A68">
         <v>65</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>2.9312230751356316E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A69">
         <v>66</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>3.2295464698450529E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A70">
         <v>67</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>3.5571189272636181E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A71">
         <v>68</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>3.9165722796764391E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A72">
         <v>69</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>4.3107254941086137E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A73">
         <v>70</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>4.7425873177566788E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A74">
         <v>71</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>5.2153563078417758E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A75">
         <v>72</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>5.7324175898868755E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A76">
         <v>73</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>6.2973356056996541E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A77">
         <v>74</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>6.9138420343346829E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A78">
         <v>75</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>7.585818002124356E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A79">
         <v>76</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>8.3172696493922421E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A80">
         <v>77</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>9.1122961014856146E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A81">
         <v>78</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>9.9750489119685218E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A82">
         <v>79</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>0.10909682119561298</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A83">
         <v>80</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>0.11920292202211755</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A84">
         <v>81</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>0.1301084743629978</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A85">
         <v>82</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>0.14185106490048793</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A86">
         <v>83</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>0.15446526508353481</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A87">
         <v>84</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A88">
         <v>85</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>0.18242552380635632</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A89">
         <v>86</v>
       </c>
@@ -7399,7 +7399,7 @@
         <v>0.1978161114414182</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A90">
         <v>87</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>0.21416501695744153</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A91">
         <v>88</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>0.23147521650098249</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A92">
         <v>89</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>0.24973989440488245</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A93">
         <v>90</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>0.2689414213699951</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A94">
         <v>91</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>0.28905049737499594</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A95">
         <v>92</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>0.31002551887238777</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A96">
         <v>93</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>0.33181222783183406</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A97">
         <v>94</v>
       </c>
@@ -7471,7 +7471,7 @@
         <v>0.35434369377420466</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A98">
         <v>95</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>0.37754066879814546</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A99">
         <v>96</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>0.40131233988754833</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A100">
         <v>97</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>0.42555748318834125</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A101">
         <v>98</v>
       </c>
@@ -7507,7 +7507,7 @@
         <v>0.45016600268752227</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A102">
         <v>99</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A103">
         <v>100</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A104">
         <v>101</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>0.52497918747894035</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A105">
         <v>102</v>
       </c>
@@ -7546,7 +7546,7 @@
         <v>0.54983399731247817</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A106">
         <v>103</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>0.57444251681165914</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A107">
         <v>104</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>0.59868766011245211</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A108">
         <v>105</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A109">
         <v>106</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>0.64565630622579573</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A110">
         <v>107</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>0.66818777216816638</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A111">
         <v>108</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>0.68997448112761262</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A112">
         <v>109</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>0.710949502625004</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A113">
         <v>110</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>0.7310585786300049</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A114">
         <v>111</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>0.75026010559511791</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A115">
         <v>112</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>0.76852478349901787</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A116">
         <v>113</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>0.78583498304255883</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A117">
         <v>114</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>0.8021838885585818</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A118">
         <v>115</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>0.81757447619364365</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A119">
         <v>116</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>0.83201838513392468</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A120">
         <v>117</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>0.84553473491646547</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A121">
         <v>118</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>0.85814893509951229</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A122">
         <v>119</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>0.86989152563700223</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A123">
         <v>120</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>0.88079707797788243</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A124">
         <v>121</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>0.89090317880438719</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A125">
         <v>122</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A126">
         <v>123</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>0.90887703898514394</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A127">
         <v>124</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>0.91682730350607766</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A128">
         <v>125</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>0.92414181997875644</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A129">
         <v>126</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>0.93086157965665328</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A130">
         <v>127</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>0.93702664394300361</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A131">
         <v>128</v>
       </c>
@@ -7786,7 +7786,7 @@
         <v>0.94267582410113127</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A132">
         <v>129</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>0.94784643692158232</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A133">
         <v>130</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>0.95257412682243325</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A134">
         <v>131</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A135">
         <v>132</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>0.96083427720323566</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A136">
         <v>133</v>
       </c>
@@ -7834,7 +7834,7 @@
         <v>0.96442881072736386</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A137">
         <v>134</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>0.96770453530154954</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A138">
         <v>135</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>0.97068776924864364</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A139">
         <v>136</v>
       </c>
@@ -7861,7 +7861,7 @@
         <v>0.97340300642313415</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A140">
         <v>137</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>0.9758729785823308</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A141">
         <v>138</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>0.97811872906386954</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A142">
         <v>139</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A143">
         <v>140</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>0.98201379003790845</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A144">
         <v>141</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>0.9836975006285591</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A145">
         <v>142</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>0.98522596830672693</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A146">
         <v>143</v>
       </c>
@@ -7930,7 +7930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A147">
         <v>144</v>
       </c>
@@ -7939,7 +7939,7 @@
         <v>0.98787156501572582</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A148">
         <v>145</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>0.98901305736940681</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A149">
         <v>146</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>0.99004819813309575</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A150">
         <v>147</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>0.99098670134715217</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A151">
         <v>148</v>
       </c>
@@ -7975,7 +7975,7 @@
         <v>0.99183742884684012</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A152">
         <v>149</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>0.99260845865571801</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A153">
         <v>150</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>0.99330714907571516</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A154">
         <v>151</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>0.99394019850841586</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A155">
         <v>152</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A156">
         <v>153</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>0.99503319834994308</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A157">
         <v>154</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>0.99550372683905886</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A158">
         <v>155</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>0.99592986228410385</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A159">
         <v>156</v>
       </c>
@@ -8050,7 +8050,7 @@
         <v>0.996315760100564</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A160">
         <v>157</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>0.99666519269258669</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A161">
         <v>158</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>0.99698158367529155</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A162">
         <v>159</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>0.99726803923698892</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A163">
         <v>160</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>0.99752737684336523</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A164">
         <v>161</v>
       </c>
@@ -8095,7 +8095,7 @@
         <v>0.99776215147872371</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A165">
         <v>162</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>0.9979746796109501</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A166">
         <v>163</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>0.99816706105750719</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A167">
         <v>164</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>0.99834119891982553</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A168">
         <v>165</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>0.99849881774326299</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A169">
         <v>166</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>0.9986414800495711</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A170">
         <v>167</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>0.99877060137872253</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A171">
         <v>168</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>0.99888746396713968</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A172">
         <v>169</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>0.9989932291799144</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A173">
         <v>170</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>0.9990889488055994</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A174">
         <v>171</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>0.99917557531360168</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A175">
         <v>172</v>
       </c>
@@ -8194,7 +8194,7 @@
         <v>0.99925397116616332</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A176">
         <v>173</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>0.99932491726936712</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A177">
         <v>174</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>0.99938912064056562</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A178">
         <v>175</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A179">
         <v>176</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>0.9994997988929204</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A180">
         <v>177</v>
       </c>
@@ -8242,7 +8242,7 @@
         <v>0.9995473777767595</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A181">
         <v>178</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>0.99959043283501392</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A182">
         <v>179</v>
       </c>
@@ -8260,7 +8260,7 @@
         <v>0.99962939385937355</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A183">
         <v>180</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>0.99966464986953352</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A184">
         <v>181</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>0.99969655296997106</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A185">
         <v>182</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>0.99972542184389868</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A186">
         <v>183</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>0.99975154491816065</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A187">
         <v>184</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>0.99977518322976666</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A188">
         <v>185</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>0.9997965730219448</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A189">
         <v>186</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>0.99981592809503661</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A190">
         <v>187</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>0.99983344193522261</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A191">
         <v>188</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>0.9998492896419402</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A192">
         <v>189</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>0.99986362967292053</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A193">
         <v>190</v>
       </c>
@@ -8359,7 +8359,7 @@
         <v>0.9998766054240138</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A194">
         <v>191</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>0.99988834665937043</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A195">
         <v>192</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>0.99989897080609225</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A196">
         <v>193</v>
       </c>
@@ -8389,7 +8389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A197">
         <v>194</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>0.99991728277714831</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A198">
         <v>195</v>
       </c>
@@ -8407,7 +8407,7 @@
         <v>0.99992515377248936</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A199">
         <v>196</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>0.99993227585038025</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A200">
         <v>197</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>0.99993872026038344</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A201">
         <v>198</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>0.99994455147527717</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A202">
         <v>199</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>0.99994982783531627</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A203">
         <v>200</v>
       </c>
@@ -8466,12 +8466,12 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -8479,7 +8479,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>5.0172164683764198E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>2</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>5.5448524722794907E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>3</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>6.1279739616602468E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>4</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>6.7724149619770245E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>5</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>7.4846227510611243E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>6</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>8.2717222851666389E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>7</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>9.1415873852161426E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>8</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>1.0102919390777289E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>9</v>
       </c>
@@ -8576,7 +8576,7 @@
         <v>1.1165334062956276E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>10</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>1.2339457598623172E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>11</v>
       </c>
@@ -8594,7 +8594,7 @@
         <v>1.3637032707949703E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>12</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>1.5071035805975743E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>13</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>1.6655806477733608E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>14</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>1.84071904963424E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>15</v>
       </c>
@@ -8630,7 +8630,7 @@
         <v>2.034269780552065E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>16</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>2.2481677023329527E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>17</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>2.4845508183933427E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>18</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>2.7457815610133291E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>19</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>3.0344703002891922E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>20</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>3.3535013046647816E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>21</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v>3.7060614062639648E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>22</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>4.0956716498605043E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>23</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>4.5262222324053545E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>24</v>
       </c>
@@ -8711,7 +8711,7 @@
         <v>5.0020110707956432E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>25</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>5.5277863692359955E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>26</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>6.1087935943440102E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>27</v>
       </c>
@@ -8738,7 +8738,7 @@
         <v>6.7508273063283822E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>28</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>7.4602883383669764E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>29</v>
       </c>
@@ -8756,7 +8756,7 @@
         <v>8.2442468639829544E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>30</v>
       </c>
@@ -8765,7 +8765,7 @@
         <v>9.1105119440064539E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>31</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>1.0067708200856369E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>32</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>1.1125360328603216E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>33</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>1.2293986212774215E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>34</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>1.3585199504289594E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>35</v>
       </c>
@@ -8810,7 +8810,7 @@
         <v>1.5011822567369915E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>36</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>1.6588010801744213E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>37</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>1.8329389424928053E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>38</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>2.0253203890498836E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>39</v>
       </c>
@@ -8846,7 +8846,7 @@
         <v>2.2378485212763335E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>40</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>2.4726231566347748E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>41</v>
       </c>
@@ -8864,7 +8864,7 @@
         <v>2.7319607630110617E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>42</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>3.0184163247084245E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>43</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>3.3348073074133443E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>44</v>
       </c>
@@ -8891,7 +8891,7 @@
         <v>3.6842398994359894E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>45</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>4.0701377158961268E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>46</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>4.4962731609411825E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>47</v>
       </c>
@@ -8918,7 +8918,7 @@
         <v>4.9668016500569604E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>48</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>5.4862988994504088E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>49</v>
       </c>
@@ -8936,7 +8936,7 @@
         <v>6.0598014915841155E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>50</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>6.6928509242848563E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>51</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>7.3915413442819768E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>52</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>8.1625711531598966E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>53</v>
       </c>
@@ -8972,7 +8972,7 @@
         <v>9.0132986528478308E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>54</v>
       </c>
@@ -8981,7 +8981,7 @@
         <v>9.9518018669043258E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>55</v>
       </c>
@@ -8990,7 +8990,7 @@
         <v>1.098694263059318E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A59">
         <v>56</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>1.2128434984274246E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A60">
         <v>57</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>1.3386917827664779E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A61">
         <v>58</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>1.4774031693273069E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A62">
         <v>59</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>1.6302499371440949E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A63">
         <v>60</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>1.7986209962091555E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A64">
         <v>61</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>1.9840305734077517E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A65">
         <v>62</v>
       </c>
@@ -9053,7 +9053,7 @@
         <v>2.1881270936130476E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A66">
         <v>63</v>
       </c>
@@ -9062,7 +9062,7 @@
         <v>2.4127021417669221E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A67">
         <v>64</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>2.659699357686586E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A68">
         <v>65</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>2.9312230751356316E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A69">
         <v>66</v>
       </c>
@@ -9089,7 +9089,7 @@
         <v>3.2295464698450529E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A70">
         <v>67</v>
       </c>
@@ -9098,7 +9098,7 @@
         <v>3.5571189272636181E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A71">
         <v>68</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>3.9165722796764391E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A72">
         <v>69</v>
       </c>
@@ -9116,7 +9116,7 @@
         <v>4.3107254941086137E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A73">
         <v>70</v>
       </c>
@@ -9125,7 +9125,7 @@
         <v>4.7425873177566788E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A74">
         <v>71</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>5.2153563078417758E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A75">
         <v>72</v>
       </c>
@@ -9143,7 +9143,7 @@
         <v>5.7324175898868755E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A76">
         <v>73</v>
       </c>
@@ -9152,7 +9152,7 @@
         <v>6.2973356056996541E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A77">
         <v>74</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>6.9138420343346829E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A78">
         <v>75</v>
       </c>
@@ -9170,7 +9170,7 @@
         <v>7.585818002124356E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A79">
         <v>76</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>8.3172696493922421E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A80">
         <v>77</v>
       </c>
@@ -9188,7 +9188,7 @@
         <v>9.1122961014856146E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A81">
         <v>78</v>
       </c>
@@ -9197,7 +9197,7 @@
         <v>9.9750489119685218E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A82">
         <v>79</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>0.10909682119561298</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A83">
         <v>80</v>
       </c>
@@ -9215,7 +9215,7 @@
         <v>0.11920292202211755</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A84">
         <v>81</v>
       </c>
@@ -9224,7 +9224,7 @@
         <v>0.1301084743629978</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A85">
         <v>82</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>0.14185106490048793</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A86">
         <v>83</v>
       </c>
@@ -9242,7 +9242,7 @@
         <v>0.15446526508353481</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A87">
         <v>84</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>0.16798161486607555</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A88">
         <v>85</v>
       </c>
@@ -9260,7 +9260,7 @@
         <v>0.18242552380635632</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A89">
         <v>86</v>
       </c>
@@ -9269,7 +9269,7 @@
         <v>0.1978161114414182</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A90">
         <v>87</v>
       </c>
@@ -9278,7 +9278,7 @@
         <v>0.21416501695744153</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A91">
         <v>88</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>0.23147521650098249</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A92">
         <v>89</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>0.24973989440488245</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A93">
         <v>90</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>0.2689414213699951</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A94">
         <v>91</v>
       </c>
@@ -9314,7 +9314,7 @@
         <v>0.28905049737499594</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A95">
         <v>92</v>
       </c>
@@ -9323,7 +9323,7 @@
         <v>0.31002551887238777</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A96">
         <v>93</v>
       </c>
@@ -9332,7 +9332,7 @@
         <v>0.33181222783183406</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A97">
         <v>94</v>
       </c>
@@ -9341,7 +9341,7 @@
         <v>0.35434369377420466</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A98">
         <v>95</v>
       </c>
@@ -9350,7 +9350,7 @@
         <v>0.37754066879814546</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A99">
         <v>96</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>0.40131233988754833</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A100">
         <v>97</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>0.42555748318834125</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A101">
         <v>98</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>0.45016600268752227</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A102">
         <v>99</v>
       </c>
@@ -9386,7 +9386,7 @@
         <v>0.4750208125210601</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A103">
         <v>100</v>
       </c>
@@ -9395,7 +9395,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A104">
         <v>101</v>
       </c>
@@ -9404,7 +9404,7 @@
         <v>0.52497918747894035</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A105">
         <v>102</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>0.54983399731247817</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A106">
         <v>103</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>0.57444251681165914</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A107">
         <v>104</v>
       </c>
@@ -9431,7 +9431,7 @@
         <v>0.59868766011245211</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A108">
         <v>105</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>0.62245933120185459</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A109">
         <v>106</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>0.64565630622579573</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A110">
         <v>107</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>0.66818777216816638</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A111">
         <v>108</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>0.68997448112761262</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A112">
         <v>109</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>0.710949502625004</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A113">
         <v>110</v>
       </c>
@@ -9485,7 +9485,7 @@
         <v>0.7310585786300049</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A114">
         <v>111</v>
       </c>
@@ -9494,7 +9494,7 @@
         <v>0.75026010559511791</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A115">
         <v>112</v>
       </c>
@@ -9503,7 +9503,7 @@
         <v>0.76852478349901787</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A116">
         <v>113</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>0.78583498304255883</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A117">
         <v>114</v>
       </c>
@@ -9521,7 +9521,7 @@
         <v>0.8021838885585818</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A118">
         <v>115</v>
       </c>
@@ -9530,7 +9530,7 @@
         <v>0.81757447619364365</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A119">
         <v>116</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>0.83201838513392468</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A120">
         <v>117</v>
       </c>
@@ -9548,7 +9548,7 @@
         <v>0.84553473491646547</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A121">
         <v>118</v>
       </c>
@@ -9557,7 +9557,7 @@
         <v>0.85814893509951229</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A122">
         <v>119</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>0.86989152563700223</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A123">
         <v>120</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>0.88079707797788243</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A124">
         <v>121</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>0.89090317880438719</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A125">
         <v>122</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>0.90024951088031491</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A126">
         <v>123</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>0.90887703898514394</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A127">
         <v>124</v>
       </c>
@@ -9611,7 +9611,7 @@
         <v>0.91682730350607766</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A128">
         <v>125</v>
       </c>
@@ -9620,7 +9620,7 @@
         <v>0.92414181997875644</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A129">
         <v>126</v>
       </c>
@@ -9629,7 +9629,7 @@
         <v>0.93086157965665328</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A130">
         <v>127</v>
       </c>
@@ -9638,7 +9638,7 @@
         <v>0.93702664394300361</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A131">
         <v>128</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>0.94267582410113127</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A132">
         <v>129</v>
       </c>
@@ -9656,7 +9656,7 @@
         <v>0.94784643692158232</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A133">
         <v>130</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>0.95257412682243325</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A134">
         <v>131</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>0.95689274505891397</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A135">
         <v>132</v>
       </c>
@@ -9683,7 +9683,7 @@
         <v>0.96083427720323566</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A136">
         <v>133</v>
       </c>
@@ -9692,7 +9692,7 @@
         <v>0.96442881072736386</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A137">
         <v>134</v>
       </c>
@@ -9701,7 +9701,7 @@
         <v>0.96770453530154954</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A138">
         <v>135</v>
       </c>
@@ -9710,7 +9710,7 @@
         <v>0.97068776924864364</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A139">
         <v>136</v>
       </c>
@@ -9719,7 +9719,7 @@
         <v>0.97340300642313415</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A140">
         <v>137</v>
       </c>
@@ -9728,7 +9728,7 @@
         <v>0.9758729785823308</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A141">
         <v>138</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>0.97811872906386954</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A142">
         <v>139</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>0.98015969426592253</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A143">
         <v>140</v>
       </c>
@@ -9755,7 +9755,7 @@
         <v>0.98201379003790845</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A144">
         <v>141</v>
       </c>
@@ -9764,7 +9764,7 @@
         <v>0.9836975006285591</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A145">
         <v>142</v>
       </c>
@@ -9773,7 +9773,7 @@
         <v>0.98522596830672693</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A146">
         <v>143</v>
       </c>
@@ -9782,7 +9782,7 @@
         <v>0.98661308217233523</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A147">
         <v>144</v>
       </c>
@@ -9791,7 +9791,7 @@
         <v>0.98787156501572582</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A148">
         <v>145</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>0.98901305736940681</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A149">
         <v>146</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>0.99004819813309575</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A150">
         <v>147</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>0.99098670134715217</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A151">
         <v>148</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>0.99183742884684012</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A152">
         <v>149</v>
       </c>
@@ -9836,7 +9836,7 @@
         <v>0.99260845865571801</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A153">
         <v>150</v>
       </c>
@@ -9845,7 +9845,7 @@
         <v>0.99330714907571516</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A154">
         <v>151</v>
       </c>
@@ -9854,7 +9854,7 @@
         <v>0.99394019850841586</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A155">
         <v>152</v>
       </c>
@@ -9863,7 +9863,7 @@
         <v>0.9945137011005496</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A156">
         <v>153</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>0.99503319834994308</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A157">
         <v>154</v>
       </c>
@@ -9881,7 +9881,7 @@
         <v>0.99550372683905886</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A158">
         <v>155</v>
       </c>
@@ -9890,7 +9890,7 @@
         <v>0.99592986228410385</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A159">
         <v>156</v>
       </c>
@@ -9899,7 +9899,7 @@
         <v>0.996315760100564</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A160">
         <v>157</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>0.99666519269258669</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A161">
         <v>158</v>
       </c>
@@ -9917,7 +9917,7 @@
         <v>0.99698158367529155</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A162">
         <v>159</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>0.99726803923698892</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A163">
         <v>160</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>0.99752737684336523</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A164">
         <v>161</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>0.99776215147872371</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A165">
         <v>162</v>
       </c>
@@ -9953,7 +9953,7 @@
         <v>0.9979746796109501</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A166">
         <v>163</v>
       </c>
@@ -9962,7 +9962,7 @@
         <v>0.99816706105750719</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A167">
         <v>164</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>0.99834119891982553</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A168">
         <v>165</v>
       </c>
@@ -9980,7 +9980,7 @@
         <v>0.99849881774326299</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A169">
         <v>166</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>0.9986414800495711</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A170">
         <v>167</v>
       </c>
@@ -9998,7 +9998,7 @@
         <v>0.99877060137872253</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A171">
         <v>168</v>
       </c>
@@ -10007,7 +10007,7 @@
         <v>0.99888746396713968</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A172">
         <v>169</v>
       </c>
@@ -10016,7 +10016,7 @@
         <v>0.9989932291799144</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A173">
         <v>170</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>0.9990889488055994</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A174">
         <v>171</v>
       </c>
@@ -10034,7 +10034,7 @@
         <v>0.99917557531360168</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A175">
         <v>172</v>
       </c>
@@ -10043,7 +10043,7 @@
         <v>0.99925397116616332</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A176">
         <v>173</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>0.99932491726936712</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A177">
         <v>174</v>
       </c>
@@ -10061,7 +10061,7 @@
         <v>0.99938912064056562</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A178">
         <v>175</v>
       </c>
@@ -10070,7 +10070,7 @@
         <v>0.9994472213630764</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A179">
         <v>176</v>
       </c>
@@ -10079,7 +10079,7 @@
         <v>0.9994997988929204</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A180">
         <v>177</v>
       </c>
@@ -10088,7 +10088,7 @@
         <v>0.9995473777767595</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A181">
         <v>178</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>0.99959043283501392</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A182">
         <v>179</v>
       </c>
@@ -10106,7 +10106,7 @@
         <v>0.99962939385937355</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A183">
         <v>180</v>
       </c>
@@ -10115,7 +10115,7 @@
         <v>0.99966464986953352</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A184">
         <v>181</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v>0.99969655296997106</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A185">
         <v>182</v>
       </c>
@@ -10133,7 +10133,7 @@
         <v>0.99972542184389868</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A186">
         <v>183</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>0.99975154491816065</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A187">
         <v>184</v>
       </c>
@@ -10151,7 +10151,7 @@
         <v>0.99977518322976666</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A188">
         <v>185</v>
       </c>
@@ -10160,7 +10160,7 @@
         <v>0.9997965730219448</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A189">
         <v>186</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>0.99981592809503661</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A190">
         <v>187</v>
       </c>
@@ -10178,7 +10178,7 @@
         <v>0.99983344193522261</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A191">
         <v>188</v>
       </c>
@@ -10187,7 +10187,7 @@
         <v>0.9998492896419402</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A192">
         <v>189</v>
       </c>
@@ -10196,7 +10196,7 @@
         <v>0.99986362967292053</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A193">
         <v>190</v>
       </c>
@@ -10205,7 +10205,7 @@
         <v>0.9998766054240138</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A194">
         <v>191</v>
       </c>
@@ -10214,7 +10214,7 @@
         <v>0.99988834665937043</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A195">
         <v>192</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>0.99989897080609225</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A196">
         <v>193</v>
       </c>
@@ -10232,7 +10232,7 @@
         <v>0.9999085841261478</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A197">
         <v>194</v>
       </c>
@@ -10241,7 +10241,7 @@
         <v>0.99991728277714831</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A198">
         <v>195</v>
       </c>
@@ -10250,7 +10250,7 @@
         <v>0.99992515377248936</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A199">
         <v>196</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>0.99993227585038025</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A200">
         <v>197</v>
       </c>
@@ -10268,7 +10268,7 @@
         <v>0.99993872026038344</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A201">
         <v>198</v>
       </c>
@@ -10277,7 +10277,7 @@
         <v>0.99994455147527717</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A202">
         <v>199</v>
       </c>
@@ -10286,7 +10286,7 @@
         <v>0.99994982783531627</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A203">
         <v>200</v>
       </c>
